--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12870" windowHeight="4680" activeTab="1"/>
+    <workbookView windowWidth="19800" windowHeight="8430"/>
   </bookViews>
   <sheets>
     <sheet name="23" sheetId="1" r:id="rId1"/>
@@ -54,12 +54,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -490,8 +490,8 @@
   <sheetPr/>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="7"/>
@@ -688,8 +688,8 @@
   <sheetPr/>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
